--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,15 +15,60 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>standard_user</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>fn</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>Darshan</t>
+  </si>
+  <si>
+    <t>T S</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -42,18 +87,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +424,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>560057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UserData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>T S</t>
+  </si>
+  <si>
+    <t>"560001"</t>
   </si>
 </sst>
 </file>
@@ -121,9 +124,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +437,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,8 +482,8 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
-        <v>560057</v>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
